--- a/src/main/resources/gsis/excel/jgBtitle/b06.xlsx
+++ b/src/main/resources/gsis/excel/jgBtitle/b06.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/work/문서/2021/15.성인지통계DB포털/2021-08-30/FW_ 테마통계 3개 파일을 보내드립니다./"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/work/project/2021/web/gsis.kwdi.re.kr/src/main/resources/gsis/excel/jgBtitle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4630159E-0229-A641-BB26-33E78DAB53BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C415E2E-2403-F049-AFB2-C908E145C836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25020" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,6 +108,10 @@
   </si>
   <si>
     <t>학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC6BB32-EBCD-6140-9887-2F4D8810D8C8}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -464,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -525,22 +525,22 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2010,7 +2010,7 @@
         <v>6</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G54" s="1">
         <v>146</v>
